--- a/src/test/java/Marriage/Bharath/bharathProfile.xlsx
+++ b/src/test/java/Marriage/Bharath/bharathProfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="348">
   <si>
     <t>Name</t>
   </si>
@@ -32,15 +32,32 @@
     <t>Activity</t>
   </si>
   <si>
+    <t>Janani</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'3"</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>BCA
+, 
+Software Professional</t>
+  </si>
+  <si>
+    <t>Tirupati, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9277514 | Last seen an hour ago</t>
+  </si>
+  <si>
     <t>Mounika</t>
   </si>
   <si>
     <t>27 Yrs, 5'3"</t>
   </si>
   <si>
-    <t>Yadav</t>
-  </si>
-  <si>
     <t>B.Tech.
 , 
 Quality Assurance Engineer</t>
@@ -66,7 +83,24 @@
     <t>Machilipatnam, Andhra Pradesh</t>
   </si>
   <si>
-    <t>T9260041 | Last seen few mins ago</t>
+    <t>T9260041 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Dr Sussrita</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'7"</t>
+  </si>
+  <si>
+    <t>Other Bachelor Degree in Medicine
+, 
+Doctor</t>
+  </si>
+  <si>
+    <t>Hyderabad, Telangana</t>
+  </si>
+  <si>
+    <t>T9063369 | Last seen few mins ago</t>
   </si>
   <si>
     <t>Bhavana Krishna Yenumula</t>
@@ -83,7 +117,7 @@
     <t>Guntur, Andhra Pradesh</t>
   </si>
   <si>
-    <t>T9202468 | Last seen an hour ago</t>
+    <t>T9202468 | Last seen few hour ago</t>
   </si>
   <si>
     <t>Sanakam Phanitha</t>
@@ -100,7 +134,7 @@
     <t>Bhongir, Telangana</t>
   </si>
   <si>
-    <t>T9125673 | Last seen an hour ago</t>
+    <t>T9125673 | Last seen few hour ago</t>
   </si>
   <si>
     <t>Sai Sreehitha</t>
@@ -137,6 +171,23 @@
     <t>T9147227 | Last seen few hour ago</t>
   </si>
   <si>
+    <t>Nirmala</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5'4"</t>
+  </si>
+  <si>
+    <t>MBA
+, 
+Executive</t>
+  </si>
+  <si>
+    <t>Srikakulam, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9146396 | Last seen an hour ago</t>
+  </si>
+  <si>
     <t>Telukutla Pragathi</t>
   </si>
   <si>
@@ -148,7 +199,7 @@
 Software Professional</t>
   </si>
   <si>
-    <t>T9146114 | Last seen an hour ago</t>
+    <t>T9146114 | Last seen few hour ago</t>
   </si>
   <si>
     <t>Swetha Vinjamuri</t>
@@ -159,10 +210,7 @@
 Banking Professional</t>
   </si>
   <si>
-    <t>Hyderabad, Telangana</t>
-  </si>
-  <si>
-    <t>T9132419 | Last seen few mins ago</t>
+    <t>T9132419 | Last seen few hour ago</t>
   </si>
   <si>
     <t>Harshini S</t>
@@ -220,6 +268,35 @@
     <t>T9054661 | Last seen few hour ago</t>
   </si>
   <si>
+    <t>Nikitha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5'7"</t>
+  </si>
+  <si>
+    <t>MBA
+, 
+BPO / KPO / ITes Professional</t>
+  </si>
+  <si>
+    <t>T9022442 | Last seen an hour ago</t>
+  </si>
+  <si>
+    <t>Madhuri</t>
+  </si>
+  <si>
+    <t>Mancherial, Telangana</t>
+  </si>
+  <si>
+    <t>T9005774 | Last seen an hour ago</t>
+  </si>
+  <si>
+    <t>Avala Trisha Sowmika</t>
+  </si>
+  <si>
+    <t>T8992574 | Last seen few mins ago</t>
+  </si>
+  <si>
     <t>Vandana</t>
   </si>
   <si>
@@ -234,6 +311,17 @@
     <t>T8815159 | Last seen few hour ago</t>
   </si>
   <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>MBA
+, 
+Accounts / Finance Professional</t>
+  </si>
+  <si>
+    <t>T8742150 | Last seen an hour ago</t>
+  </si>
+  <si>
     <t>Komaritha Sree Vommi</t>
   </si>
   <si>
@@ -274,9 +362,6 @@
     <t>Sai Harini</t>
   </si>
   <si>
-    <t>24 Yrs, 5'3"</t>
-  </si>
-  <si>
     <t>B.Com.
 , 
 Accounts / Finance Professional</t>
@@ -291,975 +376,748 @@
     <t>Boddu Jhansi</t>
   </si>
   <si>
+    <t>T8543877 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>M Jyoshna Devi</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5'3"</t>
+  </si>
+  <si>
+    <t>Chittoor, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8518182 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>G Yesaswini Niveditha</t>
+  </si>
+  <si>
+    <t>CA
+, 
+Financial Accountant</t>
+  </si>
+  <si>
+    <t>T8443520 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Srujana Regani</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5'6"</t>
+  </si>
+  <si>
+    <t>BDS
+, 
+Doctor</t>
+  </si>
+  <si>
+    <t>Bheemunipatnam, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8263586 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Navya</t>
+  </si>
+  <si>
+    <t>Khammam, Telangana</t>
+  </si>
+  <si>
+    <t>T8022253 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Rupaja</t>
+  </si>
+  <si>
+    <t>Hyderabad, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8050681 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>B Tejaswini</t>
+  </si>
+  <si>
+    <t>T7194295 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>M.Sc.
+, 
+Professor / Lecturer</t>
+  </si>
+  <si>
+    <t>T7774464 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Data Analyst</t>
+  </si>
+  <si>
+    <t>T7537209 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5'6"</t>
+  </si>
+  <si>
+    <t>Cuddapah, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T6667066 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Nerusu Naga Durga Vineetha Devi</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>Eluru, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T7366100 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Swarna</t>
+  </si>
+  <si>
+    <t>B.Com.
+, 
+Student</t>
+  </si>
+  <si>
+    <t>T6932480 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>A Sandyarani</t>
+  </si>
+  <si>
+    <t>M.Tech.
+, 
+Software Professional</t>
+  </si>
+  <si>
+    <t>Mahbubnagar, Telangana</t>
+  </si>
+  <si>
+    <t>T7089153 | Last seen an hour ago</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>T9223988 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>R Anuradha</t>
+  </si>
+  <si>
+    <t>T9222266 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Swetha</t>
+  </si>
+  <si>
+    <t>B.Com.
+, 
+Software Professional</t>
+  </si>
+  <si>
+    <t>T9190190 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Thota Harshitha</t>
+  </si>
+  <si>
+    <t>B.Sc IT/ Computer Science
+, 
+Not Working</t>
+  </si>
+  <si>
+    <t>T8975425 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>B Pallavi</t>
+  </si>
+  <si>
+    <t>Anantapur, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T7578467 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Aswini</t>
+  </si>
+  <si>
+    <t>Other Bachelor Degree in Arts / Science / Commerce
+, 
+Not Working</t>
+  </si>
+  <si>
+    <t>Kurnool, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8693464 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Haritha Saripalli</t>
+  </si>
+  <si>
+    <t>Tadepalligudem, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8592150 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Anusha Devi Chekuri</t>
+  </si>
+  <si>
+    <t>T7632072 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Bhavana</t>
+  </si>
+  <si>
+    <t>Kakinada, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9293024 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Pavithra</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5'3"</t>
+  </si>
+  <si>
+    <t>T8592511 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Ruchitha Gunduboyana</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>T8673639 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Venkata Vennela Botta</t>
+  </si>
+  <si>
+    <t>T7393266 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Bhavani Prasanna Talari</t>
+  </si>
+  <si>
+    <t>T8953957 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Sai Chandana</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'4"</t>
+  </si>
+  <si>
+    <t>T8785990 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Sura Priyanka</t>
+  </si>
+  <si>
     <t>MBA
 , 
-Accounts / Finance Professional</t>
-  </si>
-  <si>
-    <t>T8543877 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>M Jyoshna Devi</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5'3"</t>
-  </si>
-  <si>
-    <t>Chittoor, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8518182 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>G Yesaswini Niveditha</t>
-  </si>
-  <si>
-    <t>CA
-, 
-Financial Accountant</t>
-  </si>
-  <si>
-    <t>T8443520 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Later</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5'6"</t>
-  </si>
-  <si>
-    <t>Cuddapah, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T6667066 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Swarna</t>
+Human Resources Professional</t>
+  </si>
+  <si>
+    <t>T8532695 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>MBBS
+, 
+Officer</t>
+  </si>
+  <si>
+    <t>T8413552 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Bobbili Suguna</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>T7606076 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>T8812623 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Mahalaxmi Deshaoina</t>
+  </si>
+  <si>
+    <t>BBA
+, 
+Beautician</t>
+  </si>
+  <si>
+    <t>Yadadri Bhuvanagiri, Telangana</t>
+  </si>
+  <si>
+    <t>T8654232 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>MCA
+, 
+Analyst</t>
+  </si>
+  <si>
+    <t>Annamayya, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8956053 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Veda Harshitha Pinninti</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'6"</t>
+  </si>
+  <si>
+    <t>BDS
+, 
+Student</t>
+  </si>
+  <si>
+    <t>T9240465 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Sai Sreshta Matta</t>
+  </si>
+  <si>
+    <t>T7944435 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Priya Ammulu</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Designer (others)</t>
+  </si>
+  <si>
+    <t>T9107977 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Vallepu Pravallika</t>
+  </si>
+  <si>
+    <t>M.Sc.
+, 
+Secretary / Front Office</t>
+  </si>
+  <si>
+    <t>T7699065 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Maneesha</t>
+  </si>
+  <si>
+    <t>Kandukur, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9054749 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Sowjanya</t>
+  </si>
+  <si>
+    <t>B.Ed.
+, 
+Teaching / Academician</t>
+  </si>
+  <si>
+    <t>T9018538 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Bhargavi Palla</t>
+  </si>
+  <si>
+    <t>T8926873 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Deeksha Yadav</t>
+  </si>
+  <si>
+    <t>T9148877 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>B Sesi</t>
+  </si>
+  <si>
+    <t>M.Sc.
+, 
+Corporate Communication</t>
+  </si>
+  <si>
+    <t>T9048451 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Goriparthi Bhagyalakshmi</t>
+  </si>
+  <si>
+    <t>MCA
+, 
+Software Professional</t>
+  </si>
+  <si>
+    <t>T8394831 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Kirtana</t>
+  </si>
+  <si>
+    <t>T7668205 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Anoosha R</t>
+  </si>
+  <si>
+    <t>T8770293 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Lakshmi Pranathi Boligarla</t>
+  </si>
+  <si>
+    <t>Gudur, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9273171 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Keerthi</t>
+  </si>
+  <si>
+    <t>T9100188 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>T9052172 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Palagani Radhika</t>
+  </si>
+  <si>
+    <t>Rayachoti, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9265963 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Keerthi Yadav</t>
+  </si>
+  <si>
+    <t>B.Sc. Nursing
+, 
+Student</t>
+  </si>
+  <si>
+    <t>T9258532 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Karishma</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5'7"</t>
+  </si>
+  <si>
+    <t>MBBS
+, 
+Student</t>
+  </si>
+  <si>
+    <t>T8889205 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Kiranmayi Ommi</t>
+  </si>
+  <si>
+    <t>T9228897 | Last seen few days ago</t>
+  </si>
+  <si>
+    <t>Geeta Satya Sri Barla</t>
+  </si>
+  <si>
+    <t>M.Pharm
+, 
+Analyst</t>
+  </si>
+  <si>
+    <t>Nidadavole, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8875864 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Bolleveni Praneetha</t>
+  </si>
+  <si>
+    <t>Karimnagar, Telangana</t>
+  </si>
+  <si>
+    <t>T7739893 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Durga</t>
+  </si>
+  <si>
+    <t>B.Sc.
+, 
+Education Professional</t>
+  </si>
+  <si>
+    <t>T7259407 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Bagam Prathyusha Yadav</t>
+  </si>
+  <si>
+    <t>MBBS
+, 
+Doctor</t>
+  </si>
+  <si>
+    <t>T8998952 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Sirisha</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5'7"</t>
+  </si>
+  <si>
+    <t>Other Bachelor Degree in Arts / Science / Commerce
+, 
+Fashion Designer</t>
+  </si>
+  <si>
+    <t>T8410175 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Saritha Sree</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Associate</t>
+  </si>
+  <si>
+    <t>T7716824 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>M Mounika</t>
+  </si>
+  <si>
+    <t>B.Sc.
+, 
+Administrative Professional</t>
+  </si>
+  <si>
+    <t>Wanaparthi, Telangana</t>
+  </si>
+  <si>
+    <t>T8599064 | Last seen 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Harshitha Rachuri</t>
+  </si>
+  <si>
+    <t>T8852870 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Harshita</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'11"</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Consultant</t>
+  </si>
+  <si>
+    <t>T8387464 | Last seen a week ago</t>
+  </si>
+  <si>
+    <t>Neha Dasari</t>
+  </si>
+  <si>
+    <t>T8182279 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>S.Ramya</t>
   </si>
   <si>
     <t>B.Com.
 , 
+Makeup Artist</t>
+  </si>
+  <si>
+    <t>Jaggayyapet, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T9146723 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Lakshmi Sarvani</t>
+  </si>
+  <si>
+    <t>M.Tech.
+, 
+Executive</t>
+  </si>
+  <si>
+    <t>T7758643 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Subha Sri Aala</t>
+  </si>
+  <si>
+    <t>Other Master Degree in Medicine
+, 
+Health Care Professional</t>
+  </si>
+  <si>
+    <t>T7609980 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Batta Koteswari</t>
+  </si>
+  <si>
+    <t>M.A.
+, 
 Student</t>
   </si>
   <si>
-    <t>T6932480 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>T8080017 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Srujana Regani</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5'6"</t>
-  </si>
-  <si>
-    <t>BDS
-, 
-Doctor</t>
-  </si>
-  <si>
-    <t>Bheemunipatnam, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8263586 | Last seen an hour ago</t>
-  </si>
-  <si>
-    <t>Navya</t>
-  </si>
-  <si>
-    <t>Khammam, Telangana</t>
-  </si>
-  <si>
-    <t>T8022253 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Rupaja</t>
-  </si>
-  <si>
-    <t>Hyderabad, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8050681 | Last seen an hour ago</t>
-  </si>
-  <si>
-    <t>B Tejaswini</t>
-  </si>
-  <si>
-    <t>T7194295 | Last seen few hour ago</t>
+    <t>T8759581 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Kasi.Bhagyasri</t>
+  </si>
+  <si>
+    <t>B.Sc.
+, 
+Not Working</t>
+  </si>
+  <si>
+    <t>T7044387 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Kothagalla Prasanna Sai</t>
+  </si>
+  <si>
+    <t>T7844787 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>T7652135 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>R Harshitha</t>
+  </si>
+  <si>
+    <t>T8116217 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>Gudivada (Krishna), Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8763045 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Tribhuvana</t>
+  </si>
+  <si>
+    <t>T6319538 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Nakkala Jhansirani</t>
   </si>
   <si>
     <t>M.Sc.
 , 
-Professor / Lecturer</t>
-  </si>
-  <si>
-    <t>T7774464 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Sushma</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Data Analyst</t>
-  </si>
-  <si>
-    <t>T7537209 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Nerusu Naga Durga Vineetha Devi</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>Eluru, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T7366100 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Tanusri</t>
-  </si>
-  <si>
-    <t>T8676235 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Janani</t>
-  </si>
-  <si>
-    <t>BCA
-, 
-Software Professional</t>
-  </si>
-  <si>
-    <t>Tirupati, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9277514 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Madhu</t>
+Teaching / Academician</t>
+  </si>
+  <si>
+    <t>Chirala, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8832839 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>T9114340 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Neelam Indraja</t>
+  </si>
+  <si>
+    <t>B.Com.</t>
+  </si>
+  <si>
+    <t>T9180434 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Murari Bhargavi</t>
+  </si>
+  <si>
+    <t>T8106927 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Shivani Mekala</t>
+  </si>
+  <si>
+    <t>B.Com.
+, 
+Banking Professional</t>
+  </si>
+  <si>
+    <t>T8957991 | Last seen few weeks ago</t>
+  </si>
+  <si>
+    <t>Thirthala Kanaka Kavya Sree</t>
   </si>
   <si>
     <t>MBA
 , 
-Executive</t>
-  </si>
-  <si>
-    <t>T9223988 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Lakshmi K</t>
-  </si>
-  <si>
-    <t>Higher Secondary School / High School
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>T9235178 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>R Anuradha</t>
-  </si>
-  <si>
-    <t>T9222266 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Swetha</t>
-  </si>
-  <si>
-    <t>B.Com.
-, 
-Software Professional</t>
-  </si>
-  <si>
-    <t>T9190190 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Thota Harshitha</t>
-  </si>
-  <si>
-    <t>B.Sc IT/ Computer Science
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>T8975425 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>B Pallavi</t>
-  </si>
-  <si>
-    <t>Anantapur, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T7578467 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Madhuri</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5'4"</t>
-  </si>
-  <si>
-    <t>Mancherial, Telangana</t>
-  </si>
-  <si>
-    <t>T9005774 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Aswini</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'7"</t>
-  </si>
-  <si>
-    <t>Other Bachelor Degree in Arts / Science / Commerce
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>Kurnool, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8693464 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Haritha Saripalli</t>
-  </si>
-  <si>
-    <t>Tadepalligudem, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8592150 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Anusha Devi Chekuri</t>
-  </si>
-  <si>
-    <t>T7632072 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>A Sandyarani</t>
-  </si>
-  <si>
-    <t>M.Tech.
-, 
-Software Professional</t>
-  </si>
-  <si>
-    <t>Mahbubnagar, Telangana</t>
-  </si>
-  <si>
-    <t>T7089153 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Bhavana</t>
-  </si>
-  <si>
-    <t>Kakinada, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9293024 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Pavithra</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5'3"</t>
-  </si>
-  <si>
-    <t>T8592511 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Dr Sussrita</t>
-  </si>
-  <si>
-    <t>Other Bachelor Degree in Medicine
-, 
-Doctor</t>
-  </si>
-  <si>
-    <t>T9063369 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Nirmala</t>
-  </si>
-  <si>
-    <t>Srikakulam, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9146396 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Ruchitha Gunduboyana</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>T8673639 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Nikitha</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5'7"</t>
-  </si>
-  <si>
-    <t>MBA
-, 
-BPO / KPO / ITes Professional</t>
-  </si>
-  <si>
-    <t>T9022442 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Avala Trisha Sowmika</t>
-  </si>
-  <si>
-    <t>T8992574 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Venkata Vennela Botta</t>
-  </si>
-  <si>
-    <t>T7393266 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Bhavani Prasanna Talari</t>
-  </si>
-  <si>
-    <t>T8953957 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Anusha</t>
-  </si>
-  <si>
-    <t>T8742150 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Sai Chandana</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'4"</t>
-  </si>
-  <si>
-    <t>T8785990 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Sura Priyanka</t>
-  </si>
-  <si>
-    <t>MBA
-, 
-Human Resources Professional</t>
-  </si>
-  <si>
-    <t>T8532695 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Sri</t>
-  </si>
-  <si>
-    <t>MBBS
-, 
-Officer</t>
-  </si>
-  <si>
-    <t>T8413552 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Bobbili Suguna</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>T7606076 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Megha</t>
-  </si>
-  <si>
-    <t>T8812623 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Mahalaxmi Deshaoina</t>
-  </si>
-  <si>
-    <t>BBA
-, 
-Beautician</t>
-  </si>
-  <si>
-    <t>Yadadri Bhuvanagiri, Telangana</t>
-  </si>
-  <si>
-    <t>T8654232 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>MCA
-, 
-Analyst</t>
-  </si>
-  <si>
-    <t>Annamayya, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8956053 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Veda Harshitha Pinninti</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'6"</t>
-  </si>
-  <si>
-    <t>BDS
-, 
-Student</t>
-  </si>
-  <si>
-    <t>T9240465 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Sai Sreshta Matta</t>
-  </si>
-  <si>
-    <t>T7944435 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Priya Ammulu</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Designer (others)</t>
-  </si>
-  <si>
-    <t>T9107977 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Vallepu Pravallika</t>
-  </si>
-  <si>
-    <t>M.Sc.
-, 
-Secretary / Front Office</t>
-  </si>
-  <si>
-    <t>T7699065 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Narsampet, Telangana</t>
-  </si>
-  <si>
-    <t>T9201469 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Deepthi</t>
-  </si>
-  <si>
-    <t>B.Sc.
-, 
-Police</t>
-  </si>
-  <si>
-    <t>Mahabubabad, Telangana</t>
-  </si>
-  <si>
-    <t>T8958213 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Gompa Sri Devi</t>
-  </si>
-  <si>
-    <t>Peddapuram, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9130296 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Maneesha</t>
-  </si>
-  <si>
-    <t>Kandukur, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9054749 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Sowjanya</t>
-  </si>
-  <si>
-    <t>B.Ed.
-, 
-Teaching / Academician</t>
-  </si>
-  <si>
-    <t>T9018538 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Bhargavi Palla</t>
-  </si>
-  <si>
-    <t>T8926873 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Deeksha Yadav</t>
-  </si>
-  <si>
-    <t>T9148877 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>B Sesi</t>
-  </si>
-  <si>
-    <t>M.Sc.
-, 
-Corporate Communication</t>
-  </si>
-  <si>
-    <t>T9048451 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Goriparthi Bhagyalakshmi</t>
-  </si>
-  <si>
-    <t>MCA
-, 
-Software Professional</t>
-  </si>
-  <si>
-    <t>T8394831 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Kirtana</t>
-  </si>
-  <si>
-    <t>T7668205 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Anoosha R</t>
-  </si>
-  <si>
-    <t>T8770293 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Hymavathi</t>
-  </si>
-  <si>
-    <t>M.Pharm
-, 
-Associate</t>
-  </si>
-  <si>
-    <t>Nidadavole, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8813718 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Lakshmi Pranathi Boligarla</t>
-  </si>
-  <si>
-    <t>Gudur, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9273171 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Keerthi</t>
-  </si>
-  <si>
-    <t>T9100188 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Vijayalakshmi</t>
-  </si>
-  <si>
-    <t>22 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>T9052172 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Palagani Radhika</t>
-  </si>
-  <si>
-    <t>Rayachoti, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9265963 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Keerthi Yadav</t>
-  </si>
-  <si>
-    <t>B.Sc. Nursing
-, 
-Student</t>
-  </si>
-  <si>
-    <t>T9258532 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Karishma</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5'7"</t>
-  </si>
-  <si>
-    <t>MBBS
-, 
-Student</t>
-  </si>
-  <si>
-    <t>T8889205 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Kiranmayi Ommi</t>
-  </si>
-  <si>
-    <t>T9228897 | Last seen few days ago</t>
-  </si>
-  <si>
-    <t>Geeta Satya Sri Barla</t>
-  </si>
-  <si>
-    <t>M.Pharm
-, 
-Analyst</t>
-  </si>
-  <si>
-    <t>T8875864 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Achyuta</t>
-  </si>
-  <si>
-    <t>MD / MS (Medical)
-, 
-Doctor</t>
-  </si>
-  <si>
-    <t>T8112901 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Bolleveni Praneetha</t>
-  </si>
-  <si>
-    <t>Karimnagar, Telangana</t>
-  </si>
-  <si>
-    <t>T7739893 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Durga</t>
-  </si>
-  <si>
-    <t>B.Sc.
-, 
-Education Professional</t>
-  </si>
-  <si>
-    <t>T7259407 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Chiluka Laxmiprasanna</t>
-  </si>
-  <si>
-    <t>B.M.M.
-, 
-UI / UX Designer</t>
-  </si>
-  <si>
-    <t>T7386050 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Bagam Prathyusha Yadav</t>
-  </si>
-  <si>
-    <t>MBBS
-, 
-Doctor</t>
-  </si>
-  <si>
-    <t>T8998952 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Sirisha</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5'7"</t>
-  </si>
-  <si>
-    <t>Other Bachelor Degree in Arts / Science / Commerce
-, 
-Fashion Designer</t>
-  </si>
-  <si>
-    <t>T8410175 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Saritha Sree</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Associate</t>
-  </si>
-  <si>
-    <t>T7716824 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>M Mounika</t>
-  </si>
-  <si>
-    <t>B.Sc.
-, 
-Administrative Professional</t>
-  </si>
-  <si>
-    <t>Wanaparthi, Telangana</t>
-  </si>
-  <si>
-    <t>T8599064 | Last seen 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Harshitha Rachuri</t>
-  </si>
-  <si>
-    <t>T8852870 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Harshita</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'11"</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Consultant</t>
-  </si>
-  <si>
-    <t>T8387464 | Last seen a week ago</t>
-  </si>
-  <si>
-    <t>Neha Dasari</t>
-  </si>
-  <si>
-    <t>T8182279 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>S.Ramya</t>
-  </si>
-  <si>
-    <t>B.Com.
-, 
-Makeup Artist</t>
-  </si>
-  <si>
-    <t>Jaggayyapet, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T9146723 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>A Pallavi</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>BDS
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>T8703140 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Lakshmi Sarvani</t>
-  </si>
-  <si>
-    <t>M.Tech.
-, 
-Executive</t>
-  </si>
-  <si>
-    <t>T7758643 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Subha Sri Aala</t>
-  </si>
-  <si>
-    <t>Other Master Degree in Medicine
-, 
-Health Care Professional</t>
-  </si>
-  <si>
-    <t>T7609980 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Batta Koteswari</t>
-  </si>
-  <si>
-    <t>M.A.
-, 
-Student</t>
-  </si>
-  <si>
-    <t>T8759581 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Kasi.Bhagyasri</t>
-  </si>
-  <si>
-    <t>B.Sc.
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>T7044387 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Kothagalla Prasanna Sai</t>
-  </si>
-  <si>
-    <t>T7844787 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>T7652135 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Danamaina Soujanya</t>
-  </si>
-  <si>
-    <t>Nizamabad, Telangana</t>
-  </si>
-  <si>
-    <t>T8971460 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>R Harshitha</t>
-  </si>
-  <si>
-    <t>T8116217 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Geetha</t>
-  </si>
-  <si>
-    <t>Gudivada (Krishna), Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8763045 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Tribhuvana</t>
-  </si>
-  <si>
-    <t>T6319538 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Nakkala Jhansirani</t>
-  </si>
-  <si>
-    <t>M.Sc.
-, 
-Teaching / Academician</t>
-  </si>
-  <si>
-    <t>Chirala, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8832839 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>T9114340 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Neelam Indraja</t>
-  </si>
-  <si>
-    <t>B.Com.</t>
-  </si>
-  <si>
-    <t>T9180434 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>B Manasa</t>
-  </si>
-  <si>
-    <t>B.Com.
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>Nirmal, Telangana</t>
-  </si>
-  <si>
-    <t>T9104626 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Murari Bhargavi</t>
-  </si>
-  <si>
-    <t>T8106927 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Nisha Yadav</t>
-  </si>
-  <si>
-    <t>Sangareddy, Telangana</t>
-  </si>
-  <si>
-    <t>T7609137 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Shivani Mekala</t>
-  </si>
-  <si>
-    <t>B.Com.
-, 
-Banking Professional</t>
-  </si>
-  <si>
-    <t>T8957991 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Thirthala Kanaka Kavya Sree</t>
-  </si>
-  <si>
-    <t>MBA
-, 
 Subject Matter Expert</t>
   </si>
   <si>
     <t>T8400805 | Last seen few weeks ago</t>
-  </si>
-  <si>
-    <t>Swapna</t>
-  </si>
-  <si>
-    <t>B.A.
-, 
-Actor / Model</t>
-  </si>
-  <si>
-    <t>Mulugu, Telangana</t>
-  </si>
-  <si>
-    <t>T9053923 | Last seen few weeks ago</t>
   </si>
   <si>
     <t>Thotla Pooja</t>
@@ -1363,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1523,67 +1381,67 @@
         <v>39</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>55</v>
@@ -1594,36 +1452,36 @@
         <v>56</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="D13" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>64</v>
@@ -1663,67 +1521,67 @@
         <v>72</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>83</v>
@@ -1740,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>87</v>
@@ -1754,7 +1612,7 @@
         <v>88</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
@@ -1763,7 +1621,7 @@
         <v>89</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
         <v>90</v>
@@ -1780,481 +1638,481 @@
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>8</v>
@@ -2263,87 +2121,87 @@
         <v>29</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s" s="0">
         <v>180</v>
@@ -2354,16 +2212,16 @@
         <v>181</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s" s="0">
         <v>182</v>
@@ -2374,356 +2232,356 @@
         <v>183</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s" s="0">
         <v>233</v>
@@ -2734,36 +2592,36 @@
         <v>234</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D69" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s" s="0">
         <v>235</v>
-      </c>
-      <c r="E69" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s" s="0">
-        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E70" t="s" s="0">
         <v>237</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>68</v>
       </c>
       <c r="F70" t="s" s="0">
         <v>238</v>
@@ -2774,16 +2632,16 @@
         <v>239</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s" s="0">
         <v>240</v>
@@ -2794,16 +2652,16 @@
         <v>241</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F72" t="s" s="0">
         <v>243</v>
@@ -2814,16 +2672,16 @@
         <v>244</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D73" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="E73" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="F73" t="s" s="0">
         <v>246</v>
@@ -2834,164 +2692,164 @@
         <v>247</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="F76" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>270</v>
@@ -3000,221 +2858,221 @@
         <v>8</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="F84" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E85" t="s" s="0">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s" s="0">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s" s="0">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>8</v>
@@ -3223,38 +3081,38 @@
         <v>39</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D94" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F94" t="s" s="0">
         <v>308</v>
-      </c>
-      <c r="E94" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s" s="0">
-        <v>309</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>8</v>
@@ -3263,7 +3121,7 @@
         <v>39</v>
       </c>
       <c r="E95" t="s" s="0">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s" s="0">
         <v>311</v>
@@ -3274,539 +3132,259 @@
         <v>312</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D96" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F96" t="s" s="0">
         <v>313</v>
-      </c>
-      <c r="E96" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="F96" t="s" s="0">
-        <v>315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="E97" t="s" s="0">
         <v>316</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="F97" t="s" s="0">
         <v>317</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s" s="0">
-        <v>318</v>
-      </c>
-      <c r="E97" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F97" t="s" s="0">
-        <v>319</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s" s="0">
         <v>68</v>
       </c>
       <c r="F98" t="s" s="0">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s" s="0">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s" s="0">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E101" t="s" s="0">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F101" t="s" s="0">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="E102" t="s" s="0">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E103" t="s" s="0">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F104" t="s" s="0">
         <v>335</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E104" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="F104" t="s" s="0">
-        <v>337</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F105" t="s" s="0">
         <v>338</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E105" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="F105" t="s" s="0">
-        <v>339</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="B106" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="E106" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F106" t="s" s="0">
         <v>341</v>
-      </c>
-      <c r="F106" t="s" s="0">
-        <v>342</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F107" t="s" s="0">
         <v>343</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="E107" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="F107" t="s" s="0">
-        <v>344</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="B108" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s" s="0">
+      <c r="E108" t="s" s="0">
         <v>346</v>
       </c>
-      <c r="E108" t="s" s="0">
+      <c r="F108" t="s" s="0">
         <v>347</v>
-      </c>
-      <c r="F108" t="s" s="0">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E109" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F109" t="s" s="0">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>351</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s" s="0">
-        <v>352</v>
-      </c>
-      <c r="E110" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="F110" t="s" s="0">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="0">
-        <v>354</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C111" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="E111" t="s" s="0">
-        <v>356</v>
-      </c>
-      <c r="F111" t="s" s="0">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>358</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C112" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E112" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="F112" t="s" s="0">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="0">
-        <v>360</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="E113" t="s" s="0">
-        <v>361</v>
-      </c>
-      <c r="F113" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C114" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s" s="0">
-        <v>364</v>
-      </c>
-      <c r="E114" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F114" t="s" s="0">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="C115" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="E115" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F115" t="s" s="0">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="0">
-        <v>369</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C116" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s" s="0">
-        <v>370</v>
-      </c>
-      <c r="E116" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="F116" t="s" s="0">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="B117" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C117" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D117" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E117" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="F117" t="s" s="0">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="0">
-        <v>375</v>
-      </c>
-      <c r="B118" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C118" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s" s="0">
-        <v>376</v>
-      </c>
-      <c r="E118" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="F118" t="s" s="0">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="0">
-        <v>378</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C119" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="E119" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="F119" t="s" s="0">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="0">
-        <v>381</v>
-      </c>
-      <c r="B120" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C120" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s" s="0">
-        <v>382</v>
-      </c>
-      <c r="E120" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="F120" t="s" s="0">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="0">
-        <v>384</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C121" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E121" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F121" t="s" s="0">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C122" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s" s="0">
-        <v>387</v>
-      </c>
-      <c r="E122" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="F122" t="s" s="0">
-        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/Marriage/Bharath/bharathProfile.xlsx
+++ b/src/test/java/Marriage/Bharath/bharathProfile.xlsx
@@ -147,7 +147,7 @@
     <t>Anantapur, Andhra Pradesh</t>
   </si>
   <si>
-    <t>T7578467 | Last seen an hour ago</t>
+    <t>T7578467 | Last seen few hour ago</t>
   </si>
   <si>
     <t>Nikitha</t>
@@ -204,6 +204,20 @@
     <t>T8815159 | Last seen few hour ago</t>
   </si>
   <si>
+    <t>Komaritha Sree Vommi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5'9"</t>
+  </si>
+  <si>
+    <t>MBA
+, 
+Manager</t>
+  </si>
+  <si>
+    <t>T8765782 | Last seen an hour ago</t>
+  </si>
+  <si>
     <t>Dr. Mrudula</t>
   </si>
   <si>
@@ -295,6 +309,29 @@
     <t>T8080017 | Last seen few hour ago</t>
   </si>
   <si>
+    <t>27 Yrs, 5'6"</t>
+  </si>
+  <si>
+    <t>Cuddapah, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T6667066 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Swarna</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5'4"</t>
+  </si>
+  <si>
+    <t>B.Com.
+, 
+Student</t>
+  </si>
+  <si>
+    <t>T6932480 | Last seen few hour ago</t>
+  </si>
+  <si>
     <t>Srujana Regani</t>
   </si>
   <si>
@@ -312,173 +349,150 @@
     <t>T8263586 | Last seen few hour ago</t>
   </si>
   <si>
-    <t>27 Yrs, 5'6"</t>
-  </si>
-  <si>
-    <t>Cuddapah, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T6667066 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Swarna</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5'4"</t>
+    <t>Neha Dasari</t>
+  </si>
+  <si>
+    <t>T8182279 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Navya</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>Khammam, Telangana</t>
+  </si>
+  <si>
+    <t>T8022253 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Rupaja</t>
+  </si>
+  <si>
+    <t>Hyderabad, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8050681 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>B Tejaswini</t>
+  </si>
+  <si>
+    <t>T7194295 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Revathi</t>
+  </si>
+  <si>
+    <t>M.Sc.
+, 
+Professor / Lecturer</t>
+  </si>
+  <si>
+    <t>T7774464 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Data Analyst</t>
+  </si>
+  <si>
+    <t>T7537209 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Nerusu Naga Durga Vineetha Devi</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>T7366100 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Tanusri</t>
+  </si>
+  <si>
+    <t>T8676235 | Last seen an hour ago</t>
+  </si>
+  <si>
+    <t>Pavithra</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5'3"</t>
+  </si>
+  <si>
+    <t>Nellore, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>T8592511 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>R Anuradha</t>
+  </si>
+  <si>
+    <t>T9222266 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Swetha</t>
   </si>
   <si>
     <t>B.Com.
 , 
-Student</t>
-  </si>
-  <si>
-    <t>T6932480 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Neha Dasari</t>
-  </si>
-  <si>
-    <t>T8182279 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Navya</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>Khammam, Telangana</t>
-  </si>
-  <si>
-    <t>T8022253 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Rupaja</t>
-  </si>
-  <si>
-    <t>Hyderabad, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8050681 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>B Tejaswini</t>
-  </si>
-  <si>
-    <t>T7194295 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Revathi</t>
+Software Professional</t>
+  </si>
+  <si>
+    <t>T9190190 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Sai Sreehitha</t>
+  </si>
+  <si>
+    <t>T9162202 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Deeksha Yadav</t>
+  </si>
+  <si>
+    <t>T9148877 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Thota Harshitha</t>
+  </si>
+  <si>
+    <t>B.Sc IT/ Computer Science
+, 
+Not Working</t>
+  </si>
+  <si>
+    <t>T8975425 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>Ruchitha Gunduboyana</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5'5"</t>
+  </si>
+  <si>
+    <t>T8673639 | Last seen yesterday</t>
+  </si>
+  <si>
+    <t>B.Tech.
+, 
+Analyst</t>
+  </si>
+  <si>
+    <t>T8918615 | Last seen few hour ago</t>
+  </si>
+  <si>
+    <t>Vallepu Pravallika</t>
   </si>
   <si>
     <t>M.Sc.
 , 
-Professor / Lecturer</t>
-  </si>
-  <si>
-    <t>T7774464 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Sushma</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Data Analyst</t>
-  </si>
-  <si>
-    <t>T7537209 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Nerusu Naga Durga Vineetha Devi</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>T7366100 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Tanusri</t>
-  </si>
-  <si>
-    <t>T8676235 |99+ Online</t>
-  </si>
-  <si>
-    <t>Pavithra</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5'3"</t>
-  </si>
-  <si>
-    <t>Nellore, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>T8592511 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>R Anuradha</t>
-  </si>
-  <si>
-    <t>T9222266 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Swetha</t>
-  </si>
-  <si>
-    <t>B.Com.
-, 
-Software Professional</t>
-  </si>
-  <si>
-    <t>T9190190 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Sai Sreehitha</t>
-  </si>
-  <si>
-    <t>T9162202 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Deeksha Yadav</t>
-  </si>
-  <si>
-    <t>T9148877 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Thota Harshitha</t>
-  </si>
-  <si>
-    <t>B.Sc IT/ Computer Science
-, 
-Not Working</t>
-  </si>
-  <si>
-    <t>T8975425 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Ruchitha Gunduboyana</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5'5"</t>
-  </si>
-  <si>
-    <t>T8673639 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>B.Tech.
-, 
-Analyst</t>
-  </si>
-  <si>
-    <t>T8918615 | Last seen few hour ago</t>
-  </si>
-  <si>
-    <t>Vallepu Pravallika</t>
-  </si>
-  <si>
-    <t>M.Sc.
-, 
 Secretary / Front Office</t>
   </si>
   <si>
@@ -513,20 +527,6 @@
   </si>
   <si>
     <t>T7393266 | Last seen yesterday</t>
-  </si>
-  <si>
-    <t>Komaritha Sree Vommi</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5'9"</t>
-  </si>
-  <si>
-    <t>MBA
-, 
-Manager</t>
-  </si>
-  <si>
-    <t>T8765782 | Last seen yesterday</t>
   </si>
   <si>
     <t>Sri</t>
@@ -2478,7 +2478,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>60</v>
@@ -2498,13 +2498,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s" s="13">
         <v>61</v>
@@ -2512,36 +2512,36 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s" s="14">
         <v>65</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s" s="14">
-        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>62</v>
-      </c>
       <c r="C16" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>70</v>
@@ -2553,7 +2553,7 @@
         <v>72</v>
       </c>
       <c r="G16" t="s" s="15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -2561,13 +2561,13 @@
         <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>75</v>
@@ -2584,19 +2584,19 @@
         <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="17">
         <v>77</v>
@@ -2604,25 +2604,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>83</v>
       </c>
       <c r="G19" t="s" s="18">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -2630,19 +2630,19 @@
         <v>84</v>
       </c>
       <c r="B20" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>88</v>
       </c>
       <c r="G20" t="s" s="19">
         <v>84</v>
@@ -2650,79 +2650,79 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F21" t="s" s="0">
-        <v>91</v>
-      </c>
       <c r="G21" t="s" s="20">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>16</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s" s="21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="C23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s" s="22">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>9</v>
@@ -2731,13 +2731,13 @@
         <v>30</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>101</v>
       </c>
       <c r="G24" t="s" s="23">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -2745,7 +2745,7 @@
         <v>102</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>9</v>
@@ -2754,10 +2754,10 @@
         <v>30</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s" s="24">
         <v>102</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>9</v>
@@ -2777,18 +2777,18 @@
         <v>30</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s" s="25">
         <v>106</v>
-      </c>
-      <c r="G26" t="s" s="25">
-        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>29</v>
@@ -2797,108 +2797,108 @@
         <v>9</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s" s="26">
         <v>109</v>
-      </c>
-      <c r="G27" t="s" s="26">
-        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D28" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G28" t="s" s="27">
         <v>111</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s" s="27">
-        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="G29" t="s" s="28">
         <v>114</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="G29" t="s" s="28">
-        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>30</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s" s="29">
         <v>117</v>
-      </c>
-      <c r="G30" t="s" s="29">
-        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>121</v>
       </c>
       <c r="G31" t="s" s="30">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -2906,19 +2906,19 @@
         <v>122</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s" s="31">
         <v>122</v>
@@ -2926,163 +2926,163 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>16</v>
       </c>
       <c r="F33" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s" s="32">
         <v>126</v>
-      </c>
-      <c r="G33" t="s" s="32">
-        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s" s="33">
         <v>128</v>
-      </c>
-      <c r="G34" t="s" s="33">
-        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="E35" t="s" s="0">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s" s="34">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s" s="35">
         <v>133</v>
-      </c>
-      <c r="G36" t="s" s="35">
-        <v>131</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G37" t="s" s="36">
         <v>135</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="G37" t="s" s="36">
-        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G38" t="s" s="37">
         <v>138</v>
-      </c>
-      <c r="G38" t="s" s="37">
-        <v>107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>142</v>
       </c>
       <c r="G39" t="s" s="38">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -3090,13 +3090,13 @@
         <v>143</v>
       </c>
       <c r="B40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>144</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>145</v>
@@ -3122,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s" s="40">
         <v>147</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>9</v>
@@ -3145,36 +3145,36 @@
         <v>30</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G42" t="s" s="41">
         <v>151</v>
-      </c>
-      <c r="G42" t="s" s="41">
-        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>155</v>
       </c>
       <c r="G43" t="s" s="42">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
@@ -3191,7 +3191,7 @@
         <v>157</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>158</v>
@@ -3205,13 +3205,13 @@
         <v>159</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s" s="0">
         <v>48</v>
@@ -3251,7 +3251,7 @@
         <v>163</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>9</v>
@@ -3274,7 +3274,7 @@
         <v>167</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>9</v>
@@ -3297,7 +3297,7 @@
         <v>171</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>9</v>
@@ -3343,7 +3343,7 @@
         <v>179</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>9</v>
@@ -3366,7 +3366,7 @@
         <v>182</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>9</v>
@@ -3395,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s" s="0">
         <v>16</v>
@@ -3435,13 +3435,13 @@
         <v>192</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s" s="0">
         <v>16</v>
@@ -3458,13 +3458,13 @@
         <v>194</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s" s="0">
         <v>16</v>
@@ -3481,7 +3481,7 @@
         <v>196</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>204</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s" s="0">
         <v>205</v>
@@ -3550,7 +3550,7 @@
         <v>206</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>9</v>
@@ -3596,7 +3596,7 @@
         <v>212</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>9</v>
@@ -3619,7 +3619,7 @@
         <v>214</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>9</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>29</v>
@@ -3657,7 +3657,7 @@
         <v>220</v>
       </c>
       <c r="G64" t="s" s="63">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -3711,7 +3711,7 @@
         <v>227</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>9</v>
@@ -3720,7 +3720,7 @@
         <v>228</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s" s="0">
         <v>229</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>9</v>
@@ -3749,7 +3749,7 @@
         <v>231</v>
       </c>
       <c r="G68" t="s" s="67">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -3803,7 +3803,7 @@
         <v>239</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>9</v>
@@ -3849,7 +3849,7 @@
         <v>246</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>9</v>
@@ -3895,7 +3895,7 @@
         <v>251</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>9</v>
@@ -3918,7 +3918,7 @@
         <v>254</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>9</v>
@@ -3993,10 +3993,10 @@
         <v>9</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F79" t="s" s="0">
         <v>264</v>
@@ -4010,13 +4010,13 @@
         <v>265</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s" s="0">
         <v>266</v>
@@ -4033,7 +4033,7 @@
         <v>268</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>34</v>
@@ -4079,7 +4079,7 @@
         <v>274</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>9</v>
@@ -4125,7 +4125,7 @@
         <v>279</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>9</v>
@@ -4148,7 +4148,7 @@
         <v>282</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>9</v>
@@ -4171,7 +4171,7 @@
         <v>285</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>9</v>
@@ -4180,7 +4180,7 @@
         <v>286</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s" s="0">
         <v>287</v>
@@ -4194,7 +4194,7 @@
         <v>288</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>9</v>
@@ -4249,7 +4249,7 @@
         <v>296</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F90" t="s" s="0">
         <v>297</v>
@@ -4355,7 +4355,7 @@
         <v>311</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>9</v>
@@ -4401,7 +4401,7 @@
         <v>319</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>322</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>34</v>
@@ -4447,7 +4447,7 @@
         <v>325</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>9</v>
@@ -4456,7 +4456,7 @@
         <v>326</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F99" t="s" s="0">
         <v>327</v>
@@ -4479,7 +4479,7 @@
         <v>30</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F100" t="s" s="0">
         <v>329</v>
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E101" t="s" s="0">
         <v>165</v>
@@ -4562,13 +4562,13 @@
         <v>336</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E104" t="s" s="0">
         <v>337</v>
@@ -4585,7 +4585,7 @@
         <v>339</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>9</v>
@@ -4594,7 +4594,7 @@
         <v>260</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F105" t="s" s="0">
         <v>340</v>
@@ -4608,7 +4608,7 @@
         <v>341</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>9</v>
@@ -4637,10 +4637,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F107" t="s" s="0">
         <v>346</v>
@@ -4663,7 +4663,7 @@
         <v>348</v>
       </c>
       <c r="E108" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F108" t="s" s="0">
         <v>349</v>
@@ -4700,7 +4700,7 @@
         <v>354</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>9</v>
@@ -4709,7 +4709,7 @@
         <v>30</v>
       </c>
       <c r="E110" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s" s="0">
         <v>355</v>
@@ -4723,13 +4723,13 @@
         <v>356</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E111" t="s" s="0">
         <v>357</v>
@@ -4792,7 +4792,7 @@
         <v>365</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>9</v>
@@ -4824,7 +4824,7 @@
         <v>30</v>
       </c>
       <c r="E115" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F115" t="s" s="0">
         <v>370</v>
@@ -4838,7 +4838,7 @@
         <v>371</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>9</v>
@@ -4847,7 +4847,7 @@
         <v>372</v>
       </c>
       <c r="E116" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F116" t="s" s="0">
         <v>373</v>
@@ -4861,7 +4861,7 @@
         <v>374</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>9</v>
@@ -4907,16 +4907,16 @@
         <v>380</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E119" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F119" t="s" s="0">
         <v>381</v>
